--- a/data-input/inputs.xlsx
+++ b/data-input/inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Variable</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Proportion of manual portioning</t>
+  </si>
+  <si>
+    <t>Worker hand surface area</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>cm2</t>
+  </si>
+  <si>
+    <t>hand_surface</t>
   </si>
 </sst>
 </file>
@@ -456,13 +468,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="43.08984375" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -694,6 +713,29 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-input/inputs.xlsx
+++ b/data-input/inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>Variable</t>
   </si>
@@ -151,6 +151,60 @@
   </si>
   <si>
     <t>hand_surface</t>
+  </si>
+  <si>
+    <t>q_mask</t>
+  </si>
+  <si>
+    <t>q_glove</t>
+  </si>
+  <si>
+    <t>q_wash</t>
+  </si>
+  <si>
+    <t>q_lips</t>
+  </si>
+  <si>
+    <t>Proportion of bacteria passing through mask</t>
+  </si>
+  <si>
+    <t>Proportion of bacteria passing through handwash</t>
+  </si>
+  <si>
+    <t>Proportion of bacteria passing through gloves</t>
+  </si>
+  <si>
+    <t>Transmission rate from hand/gloves/mask to lips</t>
+  </si>
+  <si>
+    <t>Leonas et al. (2003)</t>
+  </si>
+  <si>
+    <t>Racicot et al. (2013)</t>
+  </si>
+  <si>
+    <t>Montville et al. (2000)</t>
+  </si>
+  <si>
+    <t>Gibson et al. (2002)</t>
+  </si>
+  <si>
+    <t>p_mask</t>
+  </si>
+  <si>
+    <t>p_wash</t>
+  </si>
+  <si>
+    <t>p_glove</t>
+  </si>
+  <si>
+    <t>Probability of a worker wearing mask</t>
+  </si>
+  <si>
+    <t>Probability of a worker wearing gloves</t>
+  </si>
+  <si>
+    <t>Probability of a worker washed hands afterwards</t>
   </si>
 </sst>
 </file>
@@ -468,17 +522,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.7265625" customWidth="1"/>
     <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.08984375" customWidth="1"/>
+    <col min="4" max="4" width="44.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -603,7 +657,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -736,7 +790,169 @@
         <v>450</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-input/inputs.xlsx
+++ b/data-input/inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>Variable</t>
   </si>
@@ -63,9 +63,6 @@
     <t>clearing_day</t>
   </si>
   <si>
-    <t>Day index when flock is cleared</t>
-  </si>
-  <si>
     <t>k_meeh</t>
   </si>
   <si>
@@ -189,22 +186,37 @@
     <t>Gibson et al. (2002)</t>
   </si>
   <si>
-    <t>p_mask</t>
-  </si>
-  <si>
     <t>p_wash</t>
   </si>
   <si>
     <t>p_glove</t>
   </si>
   <si>
-    <t>Probability of a worker wearing mask</t>
-  </si>
-  <si>
     <t>Probability of a worker wearing gloves</t>
   </si>
   <si>
     <t>Probability of a worker washed hands afterwards</t>
+  </si>
+  <si>
+    <t>Probability of a male worker wearing mask</t>
+  </si>
+  <si>
+    <t>Probability of a female worker wearing mask</t>
+  </si>
+  <si>
+    <t>Proportion of male workers</t>
+  </si>
+  <si>
+    <t>p_male</t>
+  </si>
+  <si>
+    <t>p_mask_male</t>
+  </si>
+  <si>
+    <t>p_mask_female</t>
+  </si>
+  <si>
+    <t>Day index when flock is cleared (max. 36)</t>
   </si>
 </sst>
 </file>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -608,53 +620,53 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -663,13 +675,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -677,22 +689,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>0.3</v>
@@ -700,22 +712,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -723,22 +735,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>0.2</v>
@@ -746,22 +758,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>0.2</v>
@@ -769,22 +781,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
       </c>
       <c r="G11">
         <v>450</v>
@@ -792,22 +804,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>1.4999999999999999E-2</v>
@@ -815,22 +827,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>4.8000000000000001E-2</v>
@@ -838,22 +850,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>9.5000000000000001E-2</v>
@@ -861,22 +873,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <v>0.246</v>
@@ -884,7 +896,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -899,15 +911,15 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -916,21 +928,21 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -939,16 +951,62 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18">
-        <v>0.9</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/data-input/inputs.xlsx
+++ b/data-input/inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>Variable</t>
   </si>
@@ -136,18 +136,6 @@
   </si>
   <si>
     <t>Proportion of manual portioning</t>
-  </si>
-  <si>
-    <t>Worker hand surface area</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>cm2</t>
-  </si>
-  <si>
-    <t>hand_surface</t>
   </si>
   <si>
     <t>q_mask</t>
@@ -534,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -781,7 +769,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -790,21 +778,21 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>450</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -813,21 +801,21 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
       <c r="G12">
-        <v>1.4999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -836,21 +824,21 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
       <c r="G13">
-        <v>4.8000000000000001E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -859,44 +847,44 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14">
-        <v>9.5000000000000001E-2</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
       </c>
       <c r="G15">
-        <v>0.246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -905,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -914,12 +902,12 @@
         <v>28</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -928,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -937,12 +925,12 @@
         <v>28</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -951,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -965,7 +953,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -983,29 +971,6 @@
         <v>28</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20">
         <v>0.6</v>
       </c>
     </row>

--- a/data-input/inputs.xlsx
+++ b/data-input/inputs.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>Variable</t>
   </si>
@@ -205,19 +208,37 @@
   </si>
   <si>
     <t>Day index when flock is cleared (max. 36)</t>
+  </si>
+  <si>
+    <t>DR_omega</t>
+  </si>
+  <si>
+    <t>Parameter for dose-response</t>
+  </si>
+  <si>
+    <t>Furusawa et al. (2024)</t>
+  </si>
+  <si>
+    <t>DR_alpha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,8 +261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,6 +281,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="EstimatedVariables"/>
+      <sheetName val="ListItem"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,7 +576,7 @@
     <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -583,7 +622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -606,7 +645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -629,7 +668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -652,7 +691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -675,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -698,7 +737,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -721,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -744,7 +783,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -767,7 +806,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -790,7 +829,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -813,7 +852,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -836,7 +875,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -859,55 +898,65 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>59</v>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>55</v>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>60</v>
+        <v>18</v>
+      </c>
+      <c r="G15" s="3">
+        <v>365</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>56</v>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.248</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -916,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -930,7 +979,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -939,7 +988,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -948,12 +997,12 @@
         <v>28</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -962,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -971,10 +1020,69 @@
         <v>28</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21">
         <v>0.6</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Other3" prompt="Enter the parameter of the probability distribution not covered by the previous columns. Examples: shift parameter of the shifted log logistic distribution_x000a_" sqref="L15:L16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Other" prompt="Enter the parameter of the probability distribution not covered by the previous columns. Examples: second shape parameter of the Beta distribution_x000a_" sqref="K15:K16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Other" prompt="Enter the parameter of the probability distribution, which had not been covered by the previous columns. Examples: value of the &quot;Point estimate&quot; variable, parameters of &quot;Poisson&quot; or &quot;NegBin&quot; (negative binomial) distributions" sqref="G15:G16"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ErrorMean" error="Something is wrong. Please enter a value between the minimum and maximum values" promptTitle="Mean" prompt="Enter the most likely value (or mean value) of the probability distribution. _x000a_" sqref="H15:H16">
+      <formula1>F15</formula1>
+      <formula2>#REF!</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Standard deviation" prompt="Enter the standard deviation of the mean of the probability distribution. This cell must be filled only when the selected probability distribution is &quot;Normal&quot; or &quot;LogNormal&quot;" sqref="I15:I16">
+      <formula1>#REF!</formula1>
+      <formula2>H15</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
